--- a/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>18005</v>
+        <v>18006</v>
       </c>
       <c r="D132" t="n">
         <v>2818</v>
       </c>
       <c r="E132" t="n">
-        <v>36971382</v>
+        <v>36973137</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -26869,13 +26869,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>13359</v>
+        <v>13362</v>
       </c>
       <c r="D519" t="n">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="E519" t="n">
-        <v>74296344</v>
+        <v>74323398</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19706</v>
+        <v>19709</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56474296</v>
+        <v>56504296</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>5639</v>
+        <v>5641</v>
       </c>
       <c r="D712" t="n">
         <v>1176</v>
       </c>
       <c r="E712" t="n">
-        <v>8168120</v>
+        <v>8171016</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -41353,13 +41353,13 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>13113</v>
+        <v>13114</v>
       </c>
       <c r="D803" t="n">
         <v>1474</v>
       </c>
       <c r="E803" t="n">
-        <v>73905353</v>
+        <v>73906913</v>
       </c>
       <c r="F803" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108573</v>
+        <v>108582</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>560251482</v>
+        <v>560510897</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182153</v>
+        <v>182161</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1647163711</v>
+        <v>1647242211</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60024</v>
+        <v>60025</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>287361379</v>
+        <v>287364259</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183834</v>
+        <v>183841</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552728267</v>
+        <v>552816755</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51291</v>
+        <v>51294</v>
       </c>
       <c r="D859" t="n">
         <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>422995132</v>
+        <v>423006853</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114935</v>
+        <v>114941</v>
       </c>
       <c r="D862" t="n">
-        <v>14329</v>
+        <v>14330</v>
       </c>
       <c r="E862" t="n">
-        <v>418179593</v>
+        <v>418221541</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48524</v>
+        <v>48526</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>132252512</v>
+        <v>132265079</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40887</v>
+        <v>40888</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165625973</v>
+        <v>165825973</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32736</v>
+        <v>32743</v>
       </c>
       <c r="D888" t="n">
         <v>3651</v>
       </c>
       <c r="E888" t="n">
-        <v>189461111</v>
+        <v>189676893</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11662</v>
+        <v>11663</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54517545</v>
+        <v>54527545</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26094</v>
+        <v>26095</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>117928146</v>
+        <v>117936415</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12336</v>
+        <v>12337</v>
       </c>
       <c r="D910" t="n">
         <v>1776</v>
       </c>
       <c r="E910" t="n">
-        <v>50044279</v>
+        <v>50060970</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21933</v>
+        <v>21935</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>40056540</v>
+        <v>40057160</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13103</v>
+        <v>13104</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>33006180</v>
+        <v>33016552</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11125</v>
+        <v>11126</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44114295</v>
+        <v>44116847</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -61294,13 +61294,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>25250</v>
+        <v>25251</v>
       </c>
       <c r="D1194" t="n">
         <v>5886</v>
       </c>
       <c r="E1194" t="n">
-        <v>46021990</v>
+        <v>46022441</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
@@ -77155,13 +77155,13 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>33615</v>
+        <v>33616</v>
       </c>
       <c r="D1505" t="n">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="E1505" t="n">
-        <v>215855989</v>
+        <v>215865989</v>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
@@ -78022,13 +78022,13 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>18899</v>
+        <v>18901</v>
       </c>
       <c r="D1522" t="n">
         <v>1994</v>
       </c>
       <c r="E1522" t="n">
-        <v>106396930</v>
+        <v>106442651</v>
       </c>
       <c r="F1522" t="inlineStr">
         <is>
